--- a/PRODUTOS/Mercearia Doce/Mercearia Doce - Balas e doces.xlsx
+++ b/PRODUTOS/Mercearia Doce/Mercearia Doce - Balas e doces.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E202"/>
+  <dimension ref="A1:F123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,17 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Bananinha Sem Açúcar Paraibuna 23g</t>
+          <t>BALA FINI 90G FINIBURGUERES</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3978daf8-cfbd-4153-a783-83dc4fb22b71.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a9214bc3-50ef-4812-88ed-a40c9e3777e4.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7898279792077</t>
         </is>
       </c>
     </row>
@@ -488,17 +498,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Chocolate Nutella B-ready 22g Ferrero</t>
+          <t>Doce Cocada Escura Treno 220g</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R$ 5,49</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fcd49afd-e077-4e7f-8264-adc1ec32e82d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/51ec9229-ad38-4eda-83d6-756fe924e454.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7896462200118</t>
         </is>
       </c>
     </row>
@@ -515,17 +530,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Bala De Goma Dori Jubes Tropical 48g</t>
+          <t>Marshmallow Torção Fini 80g</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R$ 2,49</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0727174e-7d2d-43a2-8e4e-49e5b310c338.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cc7db046-7027-4539-b2ce-159eb979886a.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7898279791162</t>
         </is>
       </c>
     </row>
@@ -542,17 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Pacoca Rolha Dacolonia Pt 210gr Tradicional</t>
+          <t>Bala De Coco Ki Bala 200g</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 6,49</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3eb13ab4-aa4c-48b4-ac93-2083d596f7b5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dba36d03-7775-425c-ac8e-aebf70df0888.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7896462200811</t>
         </is>
       </c>
     </row>
@@ -569,17 +594,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Amendoim Elma Chips 145g Japones</t>
+          <t>Chocolate M&amp;ms Minis Chocolate 30g</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>R$ 9,69</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f5f2fb54-b3ba-4dfe-9e23-841b1fee7a8d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/54bfa90c-86ab-456f-b016-82655b31167a.jpg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7896423419276</t>
         </is>
       </c>
     </row>
@@ -596,17 +626,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Amendoim Elma Chips 400g Ovinho</t>
+          <t>Amendoim Frito Chiang 150g Salg S/pele</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 9,69</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7024858a-a7d7-49df-9b6a-bf09b656298f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4deb4a27-3a55-461b-9087-a70fe8df7a76.jpg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7896053504076</t>
         </is>
       </c>
     </row>
@@ -623,17 +658,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Amendoim Dacolonia 140g Doce Cricri</t>
+          <t>Paçoquita Mini Santa Helena 210g</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cec19a58-4ca2-413f-bf9f-bbace77390cd.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e5a9f579-8037-4fb8-949c-ee2f5a0c6593.jpg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7896336002732</t>
         </is>
       </c>
     </row>
@@ -650,17 +690,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Bala Stick Mint Mentos 37,5g</t>
+          <t>Amendoim Crocante Chiang 150g</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 9,69</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9334b8e9-a853-478e-84d7-c70922ba0d84.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bb0513ce-e8ff-4343-8e6e-75d430e3388e.jpg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7896053516031</t>
         </is>
       </c>
     </row>
@@ -677,17 +722,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Amendoim Santa Helena Mendorato Japonês 400g</t>
+          <t>Bala Gelatinosa Fini Tubinho Cítrico 80g</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3ce4337e-3b53-4573-a301-260fb465d46d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a5af1e7e-31f0-44e3-9977-5e5f171ee343.jpg</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7898279792039</t>
         </is>
       </c>
     </row>
@@ -704,17 +754,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Paçoca Santa Helena 350g</t>
+          <t>Chiclete Bubbaloo 50gr Tutti Fruti</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>R$ 22,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1873528b-0e5d-44e4-9b51-f9d463e55258.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/98c416e6-220a-4933-987b-73ed37359e0c.jpg</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7895800116258</t>
         </is>
       </c>
     </row>
@@ -731,17 +786,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Amendoim Torr Dacolonia 500g S/pel S/sal</t>
+          <t>Chiclete Bubbaloo Adams 55g Morango</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>R$ 19,98</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9f15e86b-1c81-493b-8a0b-2888369f88c1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/891a7509-ccdf-4c9a-9b18-0b45e30b58b0.jpg</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7895800116500</t>
         </is>
       </c>
     </row>
@@ -758,17 +818,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Amendoim Crocante Chiang 150g</t>
+          <t>Bala Deliket Dori 100g Frutas Conf</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>R$ 9,69</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bb0513ce-e8ff-4343-8e6e-75d430e3388e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b1a2068e-4b39-4f0d-b4d1-2c81ac876206.jpg</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7896058501704</t>
         </is>
       </c>
     </row>
@@ -785,17 +850,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Amendoim Salgado Elma Chips Sem Pele 100g</t>
+          <t>Ovitos Peanult Balls Chiang 150g</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 9,79</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bbe1bf5f-0006-4045-91e3-2e40c73e7b80.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9d2349c4-26ff-4248-b53c-10a5b6bf4a41.jpg</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7896053512064</t>
         </is>
       </c>
     </row>
@@ -812,17 +882,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Bananinha Paraibuna Tradicional 36g</t>
+          <t>Paçoca Santa Helena 350g</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>R$ 4,29</t>
+          <t>R$ 22,99</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dd49b103-9988-476f-84cf-752f0b9d4381.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1873528b-0e5d-44e4-9b51-f9d463e55258.jpg</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7896336000028</t>
         </is>
       </c>
     </row>
@@ -839,17 +914,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Paçoca Rolha Dacolonia 170g Zero</t>
+          <t>Doce De Mocoto Treno 300g</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/623f97f2-d9f7-479b-930b-acedb368a9f0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1f6d0d1e-7cc0-4e73-9ee1-6d83ce231f9c.jpg</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7896462200088</t>
         </is>
       </c>
     </row>
@@ -866,17 +946,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Drops Halls 28gr Cereja</t>
+          <t>Pacoca Tipo Rolha Treno 350 Gr</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>R$ 2,49</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6cb0e93b-ae1c-4dda-9d19-0cb5b7c6a044.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4a2ccaef-78ae-4b4b-bc6f-f2287c0ab89c.jpg</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7896462200712</t>
         </is>
       </c>
     </row>
@@ -893,17 +978,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Amendoim Dori Japonês 200g</t>
+          <t>Doce De Mocoto Treno 140g</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d58fd2bd-c0ba-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/656a7281-3e74-4e41-ac26-5ae098eb2fc4.jpg</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7896462200323</t>
         </is>
       </c>
     </row>
@@ -920,17 +1010,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Torrone De Amendoim Montevergine 90gr</t>
+          <t>Bananinha Sem Açúcar Paraibuna 23g</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f3bf65d6-fbd3-45ce-a89f-b324b8fa3569.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3978daf8-cfbd-4153-a783-83dc4fb22b71.jpg</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7896885500147</t>
         </is>
       </c>
     </row>
@@ -947,17 +1042,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Amendoim Dori Pettiz Crocante Com Cebola E Salsa 120g</t>
+          <t>Paçoquita Diet Santa Helena 176g</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c22e7150-4b6e-4bbe-8c57-405a1d1d2c6a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/94dbac39-45f1-48fe-8f53-4c00d2971c3a.jpg</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7896336002732</t>
         </is>
       </c>
     </row>
@@ -974,17 +1074,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Pipoca Caramelizada Minastop 150gr</t>
+          <t>BALA FINI 90G GELATINA BEIJOS</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6ef6fe4d-bd0a-44cf-802c-be72ee908e8f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1072f8ec-f9ca-4c04-b28b-9d8f06578a19.jpg</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7898279790400</t>
         </is>
       </c>
     </row>
@@ -1001,17 +1106,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Chocolate Kinder T6 Orca 75gr</t>
+          <t>BALA FINI 90G DENTADURAS</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c245899b-d582-49b0-922e-36e4f079db1f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0f41f2a6-b625-4d37-a237-cc859f728957.jpg</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7898279790417</t>
         </is>
       </c>
     </row>
@@ -1028,17 +1138,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Amendoim Crocante Pettiz 1,010kg</t>
+          <t>Bala Gelatinosa Fini Minhocas Brilho 100g</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>R$ 35,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/33ed2cdf-fa45-4803-a3c7-c883a0c073ba.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/12bf32f9-db4d-4bd5-afe3-b0053f6b7094.jpg</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7898279790776</t>
         </is>
       </c>
     </row>
@@ -1055,17 +1170,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Drops Halls Bag Cereja 84g</t>
+          <t>BALA FINI 90G GELATNA MINHOCA CITRICA</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6f87e955-6927-46ed-9244-c1aefd3cd6d6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f9bc5857-c763-4acd-a0a4-848abb2c13b7.jpg</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7898279792039</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1202,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Bala De Goma Dori Deliket Jelly Beans 150g</t>
+          <t>Pe De Moça 150g Treno</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8ef6ad90-2e6d-496c-b6e3-2666ffb1926f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9e3ee645-6a65-4a4e-b7e0-2d93022b2fe7.jpg</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7896462200743</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1234,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Bala Mastigável Skittles Frutas Silvestres 38g</t>
+          <t>Bala De Goma Frutas Sortidas Minhocas Dori Gomets 100g</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1119,7 +1244,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e180ca27-90d3-4c7e-8023-624989b1d4bc.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dfcb75d7-149c-43f5-a08e-0d4e9be18764.jpg</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7896058505450</t>
         </is>
       </c>
     </row>
@@ -1136,17 +1266,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Chiclete Trident 8gr Menta</t>
+          <t>Bala De Goma Dori Gomets Anel Ácido 100g</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7523ad0d-0bfc-4338-9ce1-7d455d894eac.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/df9f69a2-04cf-4b97-b7f8-7e7f1cd98270.jpg</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7896058505436</t>
         </is>
       </c>
     </row>
@@ -1163,17 +1298,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Amendoim Elma Chips Japonês 400g</t>
+          <t>Suspiro Biscoitone 160g</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 8,49</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6cef703f-bae2-4e7b-bcbc-e961f4c1631c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3d7538e0-3f42-426a-8ac5-52cb868a5f44.jpg</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7898171340215</t>
         </is>
       </c>
     </row>
@@ -1190,17 +1330,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Drops Halls Bag 82,5g Extra Forte</t>
+          <t>Kinder Ovo Menino T2</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 21,99</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b7c71221-b3e7-40fc-bac6-845e0a4fed8e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/876b025e-642b-4fb4-9994-f1e244df7809.jpg</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7898024395850</t>
         </is>
       </c>
     </row>
@@ -1217,17 +1362,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Amendoim Dori Pettiz Natural Crocante 120g</t>
+          <t>Kinder Ovo Menina T2</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 21,99</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bc1fed29-259f-4449-bf1c-7fdf6911505e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5bc0b7a0-2452-46ec-9091-3f1467720f86.jpg</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7898024395867</t>
         </is>
       </c>
     </row>
@@ -1244,17 +1394,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Bala Lua Cheia Dori 600g Frutas</t>
+          <t>Chiclete Trident 8gr Hortela</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/928f2d36-3319-4017-a468-f1184f155145.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e8d87b97-41b5-4887-82d8-0f19aa7d70f9.jpg</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7895800112632</t>
         </is>
       </c>
     </row>
@@ -1271,17 +1426,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Bala Banana Oliveira 300g</t>
+          <t>Amendoim Torr Dacolonia 500g S/pel S/sal</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 19,98</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b86f14bf-8f81-4e1e-9d65-37afaa6dd8bc.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9f15e86b-1c81-493b-8a0b-2888369f88c1.jpg</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7896181703945</t>
         </is>
       </c>
     </row>
@@ -1298,17 +1458,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Chocolate M&amp;m`s 148gr Pouch Amendoim</t>
+          <t>Amendoim Dacolonia 140g Doce Cricri</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>R$ 17,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7dd8776d-7c28-4035-9c6f-bf34417069ad.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cec19a58-4ca2-413f-bf9f-bbace77390cd.jpg</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7896181700579</t>
         </is>
       </c>
     </row>
@@ -1325,17 +1490,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Amendoim Dori Japonês 150g</t>
+          <t>Amendoim Torrado Dacolonia 150gr Lev Sal</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/29e1839a-308b-4597-a1bc-7b1ac22b007c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ecac5f4c-9bcd-4e92-8c34-70fd50ea7cdd.jpg</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7896181701873</t>
         </is>
       </c>
     </row>
@@ -1352,17 +1522,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>BALA FINI 90G BANANA</t>
+          <t>Rapadurinha Fund Dacolonia 160gr Lt/coco</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7d73b5ef-d9a7-4160-bd88-a553333c4b0f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/17f62c2b-5d4b-44c8-8a76-68473d9ab441.jpg</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7896181707653</t>
         </is>
       </c>
     </row>
@@ -1379,17 +1554,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Bala Dori 600g Rech Hortela</t>
+          <t>Pe De Moleque Dacolonia 100g Zero Açuc</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a9654c84-5f1a-4df1-9052-90164a5afab2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fc7396c5-bbf1-43ee-bbc5-5e244823919e.jpg</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7896181708940</t>
         </is>
       </c>
     </row>
@@ -1406,17 +1586,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Chocolate Kinder Bueno 43g</t>
+          <t>Paçoca Rolha Dacolonia 170g Zero</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/440a69d2-bc21-4815-a7a8-689c1bde6ade.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/623f97f2-d9f7-479b-930b-acedb368a9f0.jpg</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7896181707240</t>
         </is>
       </c>
     </row>
@@ -1433,17 +1618,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>BALA FINI 90G DENTADURAS</t>
+          <t>Amendoim Chiang 150g Japones</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 9,98</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0f41f2a6-b625-4d37-a237-cc859f728957.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8bd11dbc-dd4d-4c76-a2e0-a89303100b5a.jpg</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7896053516031</t>
         </is>
       </c>
     </row>
@@ -1460,17 +1650,22 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>BALA FINI 90G GELATNA MINHOCA CITRICA</t>
+          <t>Chiclete Trident 8g Tutti-frutti</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f9bc5857-c763-4acd-a0a4-848abb2c13b7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0a011c1e-c0b8-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7895800430002</t>
         </is>
       </c>
     </row>
@@ -1487,17 +1682,22 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Drops Halls 28gr Ex Fort</t>
+          <t>Geladinho Ke-delicia C/5 Und</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>R$ 2,49</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/586c4366-17e9-4e24-8774-7daa2d4c0d83.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4237b46a-9ac0-4a7a-a57e-42bc13a9d047.jpg</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7896673042750</t>
         </is>
       </c>
     </row>
@@ -1514,17 +1714,22 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Amendoim Torrado Dacolonia 450gr Salg</t>
+          <t>Pe De Moleque Treno Crocante 100g</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 3,49</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/df346adc-848d-4460-923e-f0ac7a7350e7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2858abac-8bfe-4995-953f-62185c9b6942.jpg</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7896462200774</t>
         </is>
       </c>
     </row>
@@ -1541,17 +1746,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Bala Deliket Dori 100g Frutas Conf</t>
+          <t>Pe De Moleque Treno 130g</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b1a2068e-4b39-4f0d-b4d1-2c81ac876206.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/54aa3ef8-75d8-486f-8776-385ff39123df.jpg</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7896462200781</t>
         </is>
       </c>
     </row>
@@ -1568,17 +1778,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Chiclete Trident Bag 32g Menta</t>
+          <t>Pacoca Lisa Treno 130g</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b460b3bb-b370-4a23-a6b1-8f69a037d4de.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4e777bc0-892e-44fc-a6e6-cbd96b2c744c.jpg</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7896462200767</t>
         </is>
       </c>
     </row>
@@ -1595,17 +1810,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Bala Gelatinosa Fini Minhocas Brilho 100g</t>
+          <t>Pacoca Caseira Treno 130g</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/12bf32f9-db4d-4bd5-afe3-b0053f6b7094.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/88cb5ad5-5c2c-4dc8-897d-9658b0b4dd61.jpg</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7896462200828</t>
         </is>
       </c>
     </row>
@@ -1622,17 +1842,22 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Bala Yogurte100 Dori 600g Morango</t>
+          <t>Doce De Amendoim Dacolonia 120g Caseiro</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6bbdc7e8-48fd-4fb1-9c2b-60138f14bb9f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f038d9f2-a7f4-43cc-94b7-fe0386b28199.jpg</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7896181700579</t>
         </is>
       </c>
     </row>
@@ -1649,17 +1874,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Chiclete Trident 8 Gr Melancia</t>
+          <t>Paçoquita Santa Helena Rolha 150g</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/39dc8b2f-d46d-4027-9699-08d61952eaa0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/91e1d67a-b5d9-4174-8a60-ac173d3b9c87.jpg</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7896336006945</t>
         </is>
       </c>
     </row>
@@ -1676,17 +1906,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Amendoim Torrado Dacolonia 150gr Lev Sal</t>
+          <t>Amendoim Santa Helena Mendorato Japonês 400g</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ecac5f4c-9bcd-4e92-8c34-70fd50ea7cdd.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3ce4337e-3b53-4573-a301-260fb465d46d.jpg</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7896336010010</t>
         </is>
       </c>
     </row>
@@ -1703,17 +1938,22 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Amendoim Frito Chiang 150g Salg S/pele</t>
+          <t>Choc M&amp;m´s Ao Leite 45g</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>R$ 9,69</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4deb4a27-3a55-461b-9087-a70fe8df7a76.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c0d27426-2ec9-4806-9ada-aaaaa5ce1290.jpg</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7896423405743</t>
         </is>
       </c>
     </row>
@@ -1730,17 +1970,22 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Bala Mastigável Skittles Original 38g</t>
+          <t>Pacoca Rolha Dacolonia Pt 210gr Tradicional</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>R$ 4,59</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8f413b69-406f-4733-a978-59a66d90daab.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3eb13ab4-aa4c-48b4-ac93-2083d596f7b5.jpg</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7896181701293</t>
         </is>
       </c>
     </row>
@@ -1757,17 +2002,22 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Chiclete Trident 25,2g Menta</t>
+          <t>Pacoca Rolha Pt Dacolonia 210g Açuc Masc</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/25f3ffac-1305-4059-a866-8623b76fe8e8.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ce2b3012-f641-4e2c-b2e4-e3b9b6c9e06b.jpg</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7896181709244</t>
         </is>
       </c>
     </row>
@@ -1784,17 +2034,22 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Pacoca Rolha Pt Dacolonia 210g Açuc Masc</t>
+          <t>Bala Dura Fruittella 41g Caramelo</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ce2b3012-f641-4e2c-b2e4-e3b9b6c9e06b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0976fb1e-c0b8-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7895144125114</t>
         </is>
       </c>
     </row>
@@ -1811,17 +2066,22 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Chiclete Max Tridente 16,5g Menta/blueberry</t>
+          <t>Bala Stick Mint Mentos 37,5g</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3a44a9cc-1c70-4954-9c9d-6ec4d84b53a2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9334b8e9-a853-478e-84d7-c70922ba0d84.jpg</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7896262304306</t>
         </is>
       </c>
     </row>
@@ -1838,17 +2098,22 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Marshmallow Torção Fini 80g</t>
+          <t>Goma Mascar Mentos 8,5g Spearmint</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cc7db046-7027-4539-b2ce-159eb979886a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/616d4f51-1ab4-4240-9fa7-782c2c580c3a.jpg</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7895144892931</t>
         </is>
       </c>
     </row>
@@ -1865,17 +2130,22 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Bala Gelatinosa Ursinho Fini 90g</t>
+          <t>Pastilha Kiss Box Mentos 35g Mint</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9c9c745e-54cf-4ae1-bfe2-4565b05cae15.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f4204b9e-a445-49c6-951e-ff0b7157b6ed.jpg</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7895144605678</t>
         </is>
       </c>
     </row>
@@ -1892,17 +2162,22 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Chocolate Kinder T4 Orca</t>
+          <t>Pastilha Kiss Box Mentos 35g Fruit Mgo</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a65b1857-c0b9-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d15ef051-3e95-44cc-a8a5-ac6c2916a671.jpg</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7895144605685</t>
         </is>
       </c>
     </row>
@@ -1919,17 +2194,22 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Chocolate M&amp;ms Minis Chocolate 30g</t>
+          <t>Bala Mast Nat Fruittella 40g Morango</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/54bfa90c-86ab-456f-b016-82655b31167a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2b473dec-a460-4133-9b53-d8277939027e.jpg</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7896262301022</t>
         </is>
       </c>
     </row>
@@ -1946,17 +2226,22 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Pacoca Tipo Rolha Treno 350 Gr</t>
+          <t>Pirulito Yogurte100 Dori 105g Mor Mast</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4a2ccaef-78ae-4b4b-bc6f-f2287c0ab89c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ce9f1d3f-cca9-4721-88b4-d43674875463.jpg</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7896058511550</t>
         </is>
       </c>
     </row>
@@ -1973,17 +2258,22 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Bala Bolete Dori 600g Tutti Frutti</t>
+          <t>Bala De Goma Dori Frutas Ácidas Deliket 100g</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/49b6ab32-712d-4113-8209-c658074c1168.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7e51e9be-be88-429e-8005-5b6991e06bef.jpg</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7896058501704</t>
         </is>
       </c>
     </row>
@@ -2000,17 +2290,22 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Chiclete Max Trident 16,5g Hortela Fresca</t>
+          <t>Bala Gomets Dori 100g Goma Minh Acida</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2e8a2b6b-874e-4ac9-9924-d82aaceb698b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b82e5bb8-805c-4649-bf5f-00317f428171.jpg</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>7896058505450</t>
         </is>
       </c>
     </row>
@@ -2027,17 +2322,22 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Past Tic Tac Laranja 14,5g</t>
+          <t>Chocolate Kinder T6 Orca 75gr</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6492572b-04ad-4ae8-99a3-fca293764489.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c245899b-d582-49b0-922e-36e4f079db1f.jpg</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>7898024397410</t>
         </is>
       </c>
     </row>
@@ -2054,17 +2354,22 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Paçoquita Diet Santa Helena 176g</t>
+          <t>Chiclete Trident 8gr Morango/frutilla</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/94dbac39-45f1-48fe-8f53-4c00d2971c3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e8217160-65ed-4fcc-ae08-4a71e7239ec4.jpg</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>7895800480502</t>
         </is>
       </c>
     </row>
@@ -2081,17 +2386,22 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Amendoim Chiang 150g Japones</t>
+          <t>Stick Frutas Vermelhas Mentos 37,5g</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>R$ 9,98</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8bd11dbc-dd4d-4c76-a2e0-a89303100b5a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/009c4e19-c0b8-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7895144603063</t>
         </is>
       </c>
     </row>
@@ -2108,17 +2418,22 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Bala Dori 600g Rech Morango</t>
+          <t>Choc M&amp;m Ao Leite 148gr</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9d188d39-a99d-45cb-911e-7332734444b2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6f701c57-4954-4a64-b7ea-3f20a774c726.jpg</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>7896423405743</t>
         </is>
       </c>
     </row>
@@ -2135,17 +2450,22 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Chocolate Kinder T1 12,5g</t>
+          <t>Amendoim Elma Chips 400g Ovinho</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>R$ 3,49</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f29ea8c8-62ce-43ef-ab5f-673fabcaf1ff.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7024858a-a7d7-49df-9b6a-bf09b656298f.jpg</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7892840819903</t>
         </is>
       </c>
     </row>
@@ -2162,17 +2482,22 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Pe De Moleque Treno Crocante 100g</t>
+          <t>Amendoim Salgado Elma Chips Sem Pele 100g</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>R$ 3,49</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2858abac-8bfe-4995-953f-62185c9b6942.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bbe1bf5f-0006-4045-91e3-2e40c73e7b80.jpg</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7892840814748</t>
         </is>
       </c>
     </row>
@@ -2189,17 +2514,22 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>BALA FINI 90G FINIBURGUERES</t>
+          <t>Bala Yogurte100 Dori 600g Morango</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a9214bc3-50ef-4812-88ed-a40c9e3777e4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6bbdc7e8-48fd-4fb1-9c2b-60138f14bb9f.jpg</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>7896058591552</t>
         </is>
       </c>
     </row>
@@ -2216,17 +2546,22 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>BALA FINI 90G GELATINA BEIJOS</t>
+          <t>Bala Lua Cheia Dori 600g Frutas</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1072f8ec-f9ca-4c04-b28b-9d8f06578a19.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/928f2d36-3319-4017-a468-f1184f155145.jpg</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>7896058506006</t>
         </is>
       </c>
     </row>
@@ -2243,17 +2578,22 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Bala Gelatinosa Fini Tubinho Cítrico 80g</t>
+          <t>Bala Lua Cheia Dori 600g Chantily</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a5af1e7e-31f0-44e3-9977-5e5f171ee343.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/22d8f148-81e9-4af2-9fcf-50d4c119314e.jpg</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7896058591644</t>
         </is>
       </c>
     </row>
@@ -2270,17 +2610,22 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Bala De Goma Frutas Sortidas Minhocas Dori Gomets 100g</t>
+          <t>Bala Bolete Dori 600g Tutti Frutti</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dfcb75d7-149c-43f5-a08e-0d4e9be18764.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/49b6ab32-712d-4113-8209-c658074c1168.jpg</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>7896058591590</t>
         </is>
       </c>
     </row>
@@ -2297,17 +2642,22 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Paçoquita Mini Santa Helena 210g</t>
+          <t>Bala Dori 600g Rech Mel</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e5a9f579-8037-4fb8-949c-ee2f5a0c6593.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/925d2c4e-0cc8-4c6c-8573-ec94cd19a8bb.jpg</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>7896058591620</t>
         </is>
       </c>
     </row>
@@ -2324,17 +2674,22 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Suspiro Biscoitone 160g</t>
+          <t>Bala Dori 600g Rech Hortela</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>R$ 8,49</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3d7538e0-3f42-426a-8ac5-52cb868a5f44.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a9654c84-5f1a-4df1-9052-90164a5afab2.jpg</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>7896058591620</t>
         </is>
       </c>
     </row>
@@ -2351,17 +2706,22 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Doce Cocada Escura Treno 220g</t>
+          <t>Bala Dori 600g Rech Morango</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/51ec9229-ad38-4eda-83d6-756fe924e454.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9d188d39-a99d-45cb-911e-7332734444b2.jpg</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>7896058591552</t>
         </is>
       </c>
     </row>
@@ -2378,17 +2738,22 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Chiclete Trident 8gr Hortela</t>
+          <t>Chocolate Mm`s Crispy Sch 35g</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e8d87b97-41b5-4887-82d8-0f19aa7d70f9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ef84a444-09d4-44ea-9b80-2af3cfc129ca.jpg</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>7896423401066</t>
         </is>
       </c>
     </row>
@@ -2405,17 +2770,22 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Pe De Moça 150g Treno</t>
+          <t>Chiclete Trident Bag 32g Hortela</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9e3ee645-6a65-4a4e-b7e0-2d93022b2fe7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/00000b47-c0b8-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>7895800112632</t>
         </is>
       </c>
     </row>
@@ -2432,17 +2802,22 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Bala Gelatinosa Sabor Morango Tubes Fini 80g</t>
+          <t>Chiclete Trident Bag 32g Menta</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c3ea1f3d-17f5-48b3-abb8-aab0b7d3f5ee.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b460b3bb-b370-4a23-a6b1-8f69a037d4de.jpg</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>7895800112786</t>
         </is>
       </c>
     </row>
@@ -2459,17 +2834,22 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Bala De Goma Dori Gomets Anel Ácido 100g</t>
+          <t>Chiclete Trident Bag 32g Morango</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/df9f69a2-04cf-4b97-b7f8-7e7f1cd98270.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2003b49e-0d2b-48f7-ac41-aa3ea25cb5ba.jpg</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>7895800480502</t>
         </is>
       </c>
     </row>
@@ -2486,17 +2866,22 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Doce De Amendoim Dacolonia 120g Caseiro</t>
+          <t>Chiclete Trident Bag 32g Tutti Frutti</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f038d9f2-a7f4-43cc-94b7-fe0386b28199.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ab3edfc2-b2fe-462c-b9dc-ee30961f15b3.jpg</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>7895800112786</t>
         </is>
       </c>
     </row>
@@ -2513,17 +2898,22 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Chiclete Bubbaloo Adams 55g Morango</t>
+          <t>Chiclete Trident Bag 32g Melancia</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/891a7509-ccdf-4c9a-9b18-0b45e30b58b0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/554827d3-b532-4707-8edf-f909dc7be234.jpg</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>7895800480540</t>
         </is>
       </c>
     </row>
@@ -2540,17 +2930,22 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Chiclete Bubbaloo 50gr Tutti Fruti</t>
+          <t>Torrone De Amendoim Montevergine 90gr</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/98c416e6-220a-4933-987b-73ed37359e0c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f3bf65d6-fbd3-45ce-a89f-b324b8fa3569.jpg</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>7896079816139</t>
         </is>
       </c>
     </row>
@@ -2567,17 +2962,22 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Drops Halls 28gr Menta</t>
+          <t>Pipoca Caramelizada Minastop 150gr</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>R$ 2,49</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0741b7bd-67b3-4960-969d-3dca76cba0c8.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6ef6fe4d-bd0a-44cf-802c-be72ee908e8f.jpg</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>7899996600317</t>
         </is>
       </c>
     </row>
@@ -2594,17 +2994,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Choc M&amp;m´s Ao Leite 45g</t>
+          <t>Suspiro Mini Minastop 100gr Trad</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c0d27426-2ec9-4806-9ada-aaaaa5ce1290.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/53185a2e-672d-43dc-87a5-d304ded1e17d.jpg</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>7899996600256</t>
         </is>
       </c>
     </row>
@@ -2621,17 +3026,22 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Chiclete Trident 8gr Morango/frutilla</t>
+          <t>Doce Cocada Natural Treno 220g</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e8217160-65ed-4fcc-ae08-4a71e7239ec4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/668f5d22-1bbc-4de6-9779-1bf70dfa0902.jpg</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>7896462201160</t>
         </is>
       </c>
     </row>
@@ -2648,17 +3058,22 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Chocolate Kinder Bueno White 39gr</t>
+          <t>Amendoim Crocante Pettiz 1,010kg</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 35,99</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a61a0576-c0b9-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/33ed2cdf-fa45-4803-a3c7-c883a0c073ba.jpg</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>7896058507690</t>
         </is>
       </c>
     </row>
@@ -2675,17 +3090,22 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Pacoca Caseira Treno 130g</t>
+          <t>Amendoim Torrado Salgado Dori 320g</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/88cb5ad5-5c2c-4dc8-897d-9658b0b4dd61.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3b4b6c6b-b645-41ed-acf6-35f42469d329.jpg</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>7896058596069</t>
         </is>
       </c>
     </row>
@@ -2702,17 +3122,22 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Bala Dori 600g Rech Mel</t>
+          <t>Amendoim Crocante Pettiz 1,010kg Pimenta Vermelha</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 35,99</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/925d2c4e-0cc8-4c6c-8573-ec94cd19a8bb.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/da3bfc21-32d5-4151-9e34-092cc7c143cd.jpg</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>7896058507690</t>
         </is>
       </c>
     </row>
@@ -2729,17 +3154,22 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Chiclete Trident 8g Tutti-frutti</t>
+          <t>Amendoim S/ Pele Pettiz 1,010kg Salgado/torrado</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 32,99</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0a011c1e-c0b8-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/319a7552-05da-4207-a7b5-2c17c985d1b7.jpg</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>7896058508239</t>
         </is>
       </c>
     </row>
@@ -2756,17 +3186,22 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Doce De Mocoto Treno 140g</t>
+          <t>Amendoim Salgado Pettiz 1,010kg Japones</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 25,99</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/656a7281-3e74-4e41-ac26-5ae098eb2fc4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/44ae9f9e-6490-409e-8c97-716935c96469.jpg</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>7896058507683</t>
         </is>
       </c>
     </row>
@@ -2783,17 +3218,22 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Bala Tubo Pescoço De Girafa Dori 30g Framboesa</t>
+          <t>Amendoim Torrado Com Lascas De Alho Dori 320g</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>R$ 2,49</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6dbf50bb-07c7-4445-8dad-362284ac4be1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5905c949-4470-41ad-b403-cb72734769a7.jpg</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>7896058597752</t>
         </is>
       </c>
     </row>
@@ -2810,17 +3250,22 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Past Tic Tac Menta 14,5g</t>
+          <t>Amendoim Torrado Com Lascas De Cebola Dori 320g</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/75ad53b6-e311-4f2f-9445-b9076ee30d38.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0b07d864-34c8-4c86-adc4-7e42cf7fdd06.jpg</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>7896058597769</t>
         </is>
       </c>
     </row>
@@ -2837,17 +3282,22 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Suspiro Mini Minastop 100gr Trad</t>
+          <t>Bala Tubo Dori 70g Rech Acido Yogurte100</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/53185a2e-672d-43dc-87a5-d304ded1e17d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a2ca4776-b510-4288-9528-b47984ed9ed2.jpg</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>7896058595321</t>
         </is>
       </c>
     </row>
@@ -2864,17 +3314,22 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Bala Stick Rainbow Mentos 37,5g</t>
+          <t>Bala Tubo Dori 70g Recheio Acido Uva</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1ed45867-da53-45db-95ad-d19c46d3f091.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5d24d034-7aa6-4ede-996a-f5b79e03d752.jpg</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>7896058595314</t>
         </is>
       </c>
     </row>
@@ -2891,17 +3346,22 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Goma Mentos Pure Fresh Mint 56g</t>
+          <t>Bala Tubo Dori 70g Recheio Yogrte100</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>R$ 15,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bea07af3-1e2f-4292-b4bd-7cea464d92d4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ceac764e-c336-446b-97d1-a56817915562.jpg</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>7896058595314</t>
         </is>
       </c>
     </row>
@@ -2918,17 +3378,22 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Amendoim Branco Dacolonia 400gr</t>
+          <t>Bala Tubo Pescoço De Girafa Dori 30g Framboesa</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 2,49</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1658b13d-9d0f-4053-9e6e-a641c1b294ef.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6dbf50bb-07c7-4445-8dad-362284ac4be1.jpg</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>7896058596748</t>
         </is>
       </c>
     </row>
@@ -2945,17 +3410,22 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Amendoim Salgado Pettiz 1,010kg Japones</t>
+          <t>Bala Tubo Pescoço De Girafa Dori 30g Morango</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>R$ 25,99</t>
+          <t>R$ 2,49</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/44ae9f9e-6490-409e-8c97-716935c96469.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d5ac721d-f830-4922-b20d-4911c2649a89.jpg</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>7896058595475</t>
         </is>
       </c>
     </row>
@@ -2972,17 +3442,22 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Chiclete Trident Garrafa 54g Peppermint</t>
+          <t>Amendoim Dori Japonês 200g</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/51826eb7-b591-4ffc-ade6-a749aff3182f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d58fd2bd-c0ba-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>7896058502107</t>
         </is>
       </c>
     </row>
@@ -2999,17 +3474,22 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Goma Gar Mentos 56g Whintergreen</t>
+          <t>Bala Tubo Dori 70g Recheio Morango</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>R$ 15,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2f035560-3b63-49db-8ec8-bd09ae453513.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/62658f0f-b3ef-422d-8251-6fcc9a5e72e6.jpg</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>7896058595314</t>
         </is>
       </c>
     </row>
@@ -3026,17 +3506,22 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Bala Lua Cheia Dori 600g Chantily</t>
+          <t>Amendoim Dacolônia Torrado E Granulado Sem Sal 500g</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/22d8f148-81e9-4af2-9fcf-50d4c119314e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/12517829-5337-4ccc-9c81-75f6dfae99bb.jpg</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>7896181704751</t>
         </is>
       </c>
     </row>
@@ -3053,17 +3538,22 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Kinder Ovo Menino T2</t>
+          <t>Chocolate M&amp;m Pouch 120g Crispy</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>R$ 21,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/876b025e-642b-4fb4-9994-f1e244df7809.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3c36608c-4c29-4641-9dd0-6a351c3c04b4.jpg</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>7896423402223</t>
         </is>
       </c>
     </row>
@@ -3080,17 +3570,22 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Doce De Banana Oliveira 400g</t>
+          <t>Amendoim Choc Dori 150g Conf</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/25232947-0dcc-4e61-8a32-e013fc37cf02.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/21d25bcb-4f04-4c97-983a-fe8f6b05199f.jpg</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>7896058599619</t>
         </is>
       </c>
     </row>
@@ -3107,17 +3602,22 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Amendoim Dacolônia Torrado E Granulado Sem Sal 500g</t>
+          <t>Amendoim Dori Japonês 150g</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>R$ 17,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/12517829-5337-4ccc-9c81-75f6dfae99bb.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/29e1839a-308b-4597-a1bc-7b1ac22b007c.jpg</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>7896058502107</t>
         </is>
       </c>
     </row>
@@ -3134,17 +3634,22 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Chocolate M&amp;m Pouch 120g Crispy</t>
+          <t>Amendoim Torrado Dori 90g Lascas Alho</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3c36608c-4c29-4641-9dd0-6a351c3c04b4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/190c80f9-b050-4699-ba0e-b0940dec9ee6.jpg</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>7896058597752</t>
         </is>
       </c>
     </row>
@@ -3161,17 +3666,22 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Kinder Joy Com Surpresa 20g</t>
+          <t>Amendoim Torrado Dori 90g Lascas De Cebola</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/84a3d3c4-b023-4f68-b0c5-eed1a81dc830.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f548ed32-0d37-4c65-b0a4-792f51562d12.jpg</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>7896058597769</t>
         </is>
       </c>
     </row>
@@ -3188,17 +3698,22 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Pacoca Lisa Treno 130g</t>
+          <t>Amendoim Torrado Dori 90g Salgado</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4e777bc0-892e-44fc-a6e6-cbd96b2c744c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7ea8a694-5e70-401b-a045-df89bfcbadb5.jpg</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>7896058597752</t>
         </is>
       </c>
     </row>
@@ -3215,17 +3730,22 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Goma Mascar Mentos 8,5g Spearmint</t>
+          <t>Bala Deliket Dori 150g Acido Conf</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/616d4f51-1ab4-4240-9fa7-782c2c580c3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c1957cc8-a6cb-47ba-a39c-e73fdfd749cd.jpg</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>7896058599954</t>
         </is>
       </c>
     </row>
@@ -3242,7 +3762,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Chocolate Mm`s Crispy Sch 35g</t>
+          <t>Disqueti Amendoim Dori 60g Chocolate Conf</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3252,7 +3772,12 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ef84a444-09d4-44ea-9b80-2af3cfc129ca.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/50a1af40-88e2-489a-ae8c-23796c4bbc00.jpg</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>7896058599398</t>
         </is>
       </c>
     </row>
@@ -3269,17 +3794,22 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Drops Bala Halls Dp 28g Uva Verde</t>
+          <t>Disqueti Chocolate Branco Dori 100g Conf</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>R$ 2,49</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/389343b5-bb3e-45d4-9f57-b5429dff5408.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4df139da-1d0c-4dc0-b04b-3aa6a96abe19.jpg</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>7896058599411</t>
         </is>
       </c>
     </row>
@@ -3296,17 +3826,22 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Bala Gelatines Melissa Docile 70g</t>
+          <t>Disqueti Chocolate Dori 120g Conf</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/81946f5d-3b6b-48ca-90e1-94a14ba162ea.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e9ef72d3-fec2-4f60-820f-6c144f98fc1e.jpg</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>7896058599435</t>
         </is>
       </c>
     </row>
@@ -3323,17 +3858,22 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Pirulito Yogurte100 Dori 105g Mor Mast</t>
+          <t>Disqueti Dori Choc Branco 60g Conf</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ce9f1d3f-cca9-4721-88b4-d43674875463.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e94cbf48-56b0-493a-ae91-58805ebd4a73.jpg</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>7896058599350</t>
         </is>
       </c>
     </row>
@@ -3350,17 +3890,22 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Disqueti Dori Choc Branco 60g Conf</t>
+          <t>Amendoim Dori Pettiz Natural Crocante 120g</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e94cbf48-56b0-493a-ae91-58805ebd4a73.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bc1fed29-259f-4449-bf1c-7fdf6911505e.jpg</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>7896058599831</t>
         </is>
       </c>
     </row>
@@ -3377,17 +3922,22 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Pastilha Tic Tac Frutas 14,5g</t>
+          <t>Amendoim Elma Chips Japonês 400g</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6422bc31-5334-45a6-b692-c9dc801fa708.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6cef703f-bae2-4e7b-bcbc-e961f4c1631c.jpg</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>7892840814724</t>
         </is>
       </c>
     </row>
@@ -3404,17 +3954,22 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Ovitos Peanult Balls Chiang 150g</t>
+          <t>Bala De Goma Dori Deliket Jelly Beans 150g</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>R$ 9,79</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9d2349c4-26ff-4248-b53c-10a5b6bf4a41.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8ef6ad90-2e6d-496c-b6e3-2666ffb1926f.jpg</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>7896058599954</t>
         </is>
       </c>
     </row>
@@ -3431,17 +3986,22 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>BALA FINI 90G AMORA REDBERRIES</t>
+          <t>Doce De Banana Oliveira 400g</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b8c7659b-f393-4ff1-ad39-c7206583812d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/25232947-0dcc-4e61-8a32-e013fc37cf02.jpg</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>7896202810713</t>
         </is>
       </c>
     </row>
@@ -3458,17 +4018,22 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Chiclete Trident Bag 32g Melancia</t>
+          <t>Bala Dogigoma Mini Abobora 180g Vass Bru</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/554827d3-b532-4707-8edf-f909dc7be234.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b32a5e49-bd53-4a3e-a542-fb51903719f0.jpg</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>7896451923479</t>
         </is>
       </c>
     </row>
@@ -3485,17 +4050,22 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Amendoim Torrado Com Lascas De Alho Dori 320g</t>
+          <t>Pipoca Cristal 60g Doce</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5905c949-4470-41ad-b403-cb72734769a7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/544c542c-519d-4d10-b099-e337956b9d1a.jpg</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>7897358901874</t>
         </is>
       </c>
     </row>
@@ -3525,6 +4095,11 @@
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d207be17-c8ac-4f2f-aad4-a0329468c6e0.jpg</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>7896451926081</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -3539,17 +4114,22 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Bala De Coco Ki Bala 200g</t>
+          <t>Pe De Moça Dacolonia 120g Choc Branco</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>R$ 6,49</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dba36d03-7775-425c-ac8e-aebf70df0888.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5def68e5-2f82-4a68-a92c-3041c8a91bca.jpg</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>7896181712930</t>
         </is>
       </c>
     </row>
@@ -3566,17 +4146,22 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Doce De Mocoto Treno 300g</t>
+          <t>Bala Gelatines Melissa Docile 70g</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1f6d0d1e-7cc0-4e73-9ee1-6d83ce231f9c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/81946f5d-3b6b-48ca-90e1-94a14ba162ea.jpg</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>7896451909381</t>
         </is>
       </c>
     </row>
@@ -3593,17 +4178,22 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Bala Gomets Dori 100g Goma Minh Acida</t>
+          <t>Bala Fini 80g Sorvetinho</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b82e5bb8-805c-4649-bf5f-00317f428171.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3a0bb586-4d78-4ca3-8178-4e8a716f8aec.jpg</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>7898591459214</t>
         </is>
       </c>
     </row>
@@ -3620,17 +4210,22 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Drops Halls 28gr Morango</t>
+          <t>Bala Tribala 500g 2 Frutas Sortida</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>R$ 2,49</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1c97e305-0260-49e3-af0c-4bfdb9e72a2e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4f091052-ac49-4168-95c4-ec949ebdb27b.jpg</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>7896306618635</t>
         </is>
       </c>
     </row>
@@ -3647,17 +4242,22 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Bala Halls Dp 28g Menta Prata</t>
+          <t>Bala Tribala 500g Morango</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>R$ 2,49</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/16c40021-35e4-45b6-bfc6-03b7866fff46.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/879d4163-cf6f-410f-8c54-3bf37fbe0749.jpg</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>7896306618697</t>
         </is>
       </c>
     </row>
@@ -3674,17 +4274,22 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Choc M&amp;m Ao Leite 148gr</t>
+          <t>Chocolate Trento 29g Pistache</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 2,99</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6f701c57-4954-4a64-b7ea-3f20a774c726.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1a06eaa3-6b86-44db-bac6-356d277bdcdb.jpg</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>7896306625909</t>
         </is>
       </c>
     </row>
@@ -3701,17 +4306,22 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Geladinho Ke-delicia C/5 Und</t>
+          <t>Pao De Mel Wickbold 175g</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>R$ 2,99</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4237b46a-9ac0-4a7a-a57e-42bc13a9d047.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1a1ac50c-8046-4d63-96ce-965278341794.jpg</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>7896066301877</t>
         </is>
       </c>
     </row>
@@ -3728,2150 +4338,22 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Amendoim Torrado Salgado Dori 320g</t>
+          <t>Marshmallow Fini Pipoca Doce 80g</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3b4b6c6b-b645-41ed-acf6-35f42469d329.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>Bala De Goma Dori Frutas Ácidas Deliket 100g</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>R$ 4,99</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7e51e9be-be88-429e-8005-5b6991e06bef.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>Bala Tubo Pescoço De Girafa Dori 30g Morango</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>R$ 2,49</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d5ac721d-f830-4922-b20d-4911c2649a89.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>Amendoim Torrado Dori 90g Salgado</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>R$ 5,99</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7ea8a694-5e70-401b-a045-df89bfcbadb5.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>Pe De Moleque Dacolonia 100g Zero Açuc</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>R$ 10,99</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fc7396c5-bbf1-43ee-bbc5-5e244823919e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>Doce Cocada Natural Treno 220g</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>R$ 11,99</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/668f5d22-1bbc-4de6-9779-1bf70dfa0902.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>Disqueti Chocolate Dori 120g Conf</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>R$ 10,99</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e9ef72d3-fec2-4f60-820f-6c144f98fc1e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>Bala Frusty Dori 600g Sortidas</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>R$ 12,99</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0c4767d0-c0b8-11e7-a6aa-063e6e4e9f3a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>Chocolate Kinder Ovo 20g Meninos</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>R$ 11,99</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0efea9d4-b6cb-4ddf-8f0b-dddbfda70bf8.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>Chiclete Trident 14s 25,2g Melancia</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>R$ 7,99</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0d7584e2-e875-48bf-869c-f1af83e45eaa.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>Amendoim Torrado Dori 90g Lascas De Cebola</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>R$ 5,99</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f548ed32-0d37-4c65-b0a4-792f51562d12.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>Past Tic Tac Morango 14,5g</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>R$ 2,99</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/34fa8f1c-f65a-4f1a-8906-57c322850133.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>Bala Fini 80g Polvo</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>R$ 7,99</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fb0bff9a-bd17-4847-8a99-736988ffbdf6.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>Chiclete Trident Bag 32g Hortela</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/00000b47-c0b8-11e7-a6aa-063e6e4e9f3a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>Bala Tubo Dori 70g Rech Acido Yogurte100</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>R$ 4,99</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a2ca4776-b510-4288-9528-b47984ed9ed2.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>Chocolate Kinder Ovo 20g Natoons</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>R$ 11,99</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ccb01649-999a-49cc-850a-173f1f79999c.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>Amendoim Crocante Pettiz 1,010kg Pimenta Vermelha</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>R$ 35,99</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/da3bfc21-32d5-4151-9e34-092cc7c143cd.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>Amendoim S/ Pele Pettiz 1,010kg Salgado/torrado</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>R$ 32,99</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/319a7552-05da-4207-a7b5-2c17c985d1b7.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>Chiclete Trident Dp 8g Fresh Cereja</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>R$ 2,99</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/158c2bb2-a7da-4a43-b467-7a1fff04b114.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>Pe De Moleque Treno 130g</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>R$ 3,99</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/54aa3ef8-75d8-486f-8776-385ff39123df.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>Goma Mascar Mentos 8,5g Fresh Min</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>R$ 2,99</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/19b1ab83-f0d8-4853-b24f-f57b1374cb00.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>Disqueti Chocolate Branco Dori 100g Conf</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>R$ 10,99</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4df139da-1d0c-4dc0-b04b-3aa6a96abe19.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>Amendoim Torrado Dori 90g Lascas Alho</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>R$ 5,99</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/190c80f9-b050-4699-ba0e-b0940dec9ee6.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>Bala Fini 80g Sapo</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>R$ 7,99</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8ebdc0bf-4461-4dcd-9176-6b690aeedb92.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>Goma Mascar Stick Mentos 16gr Fresh Mint</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>R$ 3,99</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f3908075-2d0c-4945-8aff-8c0c35be454c.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>Drops Halls Bag 84g Morango</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>R$ 5,99</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1ff6fa0c-8b61-495e-bc47-9b68352238ab.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>Kinder Ovo Menina T2</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>R$ 21,99</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5bc0b7a0-2452-46ec-9091-3f1467720f86.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>Drops Halls 28gr Melancia</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>R$ 2,49</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4fa7dfde-4912-4c75-8dce-6f599ada47b7.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>Tubes Gigante Fini 27g Iogurte</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>R$ 2,99</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0331aec5-e673-4ce9-90ce-237013db2e8b.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>Chiclete Trident 14s 25,2g Blue Berry</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>R$ 7,99</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9fbcc68f-4cd9-42e7-a4fd-81f3d1420dba.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>Amendoim Torrado Com Lascas De Cebola Dori 320g</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>R$ 14,99</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0b07d864-34c8-4c86-adc4-7e42cf7fdd06.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>Kinder Ovo T2 Marsha E Urso</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>R$ 19,99</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f24933a4-1bc3-4077-a9f0-0d47bab9c3ee.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>Bala Tubo Dori 70g Recheio Yogrte100</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>R$ 4,99</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ceac764e-c336-446b-97d1-a56817915562.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>Bala Deliket Dori 150g Acido Conf</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>R$ 4,99</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c1957cc8-a6cb-47ba-a39c-e73fdfd749cd.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>Chiclete Trident 26,6 Intense</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>R$ 7,99</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7a0a8413-820a-4af8-874e-5e98e83f5406.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>Bala Tubo Dori 70g Recheio Morango</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>R$ 4,99</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/62658f0f-b3ef-422d-8251-6fcc9a5e72e6.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>Amendoim Choc Dori 150g Conf</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>R$ 7,99</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/21d25bcb-4f04-4c97-983a-fe8f6b05199f.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>Goma Mascar Stick Mentos 16gr Wintergree</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>R$ 3,99</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7131f0b2-9154-4f55-ab92-38690219163c.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>Chiclete Trident Dp 8g Fresh Herbal</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>R$ 2,99</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7803bee6-6ec1-46f2-a033-e8c78e691cad.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>Marshmallow Docile 150g Pistache</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>R$ 7,99</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/79d26cda-042d-4f77-8dcf-7e00c27f30e3.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>Rapadurinha Fund Dacolonia 160gr Lt/coco</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>R$ 5,99</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/17f62c2b-5d4b-44c8-8a76-68473d9ab441.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>Bala Dura Fruittella 41g Caramelo</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>R$ 4,99</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0976fb1e-c0b8-11e7-a6aa-063e6e4e9f3a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>Bala Tubo Dori 70g Recheio Acido Uva</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>R$ 4,99</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5d24d034-7aa6-4ede-996a-f5b79e03d752.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>Bala Mast Nat Fruittella 40g Morango</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>R$ 4,99</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2b473dec-a460-4133-9b53-d8277939027e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>Chiclete Trident Bag 32g Morango</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2003b49e-0d2b-48f7-ac41-aa3ea25cb5ba.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>Chocolate Kinder Ovo 20g Menina</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>R$ 11,99</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8fd75126-3e7d-4422-a6f0-db6cd9fa6b1e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>Bala Gelatinosa Dori Regaliz Tubo Morango Ácido 70g</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>R$ 4,99</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/79141a20-a184-48fd-a556-9acdf21e7a40.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>Pipoca Cristal 60g Doce</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>R$ 4,99</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/544c542c-519d-4d10-b099-e337956b9d1a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>Chocolate Trento 29g Pistache</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>R$ 2,99</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1a06eaa3-6b86-44db-bac6-356d277bdcdb.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>Pastilha Kiss Box Mentos 35g Fruit Mgo</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>R$ 15,99</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d15ef051-3e95-44cc-a8a5-ac6c2916a671.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>Chiclete Trident Bag 32g Tutti Frutti</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ab3edfc2-b2fe-462c-b9dc-ee30961f15b3.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>Disqueti Amendoim Dori 60g Chocolate Conf</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>R$ 5,99</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/50a1af40-88e2-489a-ae8c-23796c4bbc00.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>Drops Halls Bag 84g Menta</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>R$ 5,99</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/af049c9d-a1fb-4bc8-9b72-be06037f363e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>Pastilha Kiss Box Mentos 35g Mint</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>R$ 15,99</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f4204b9e-a445-49c6-951e-ff0b7157b6ed.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>Stick Frutas Vermelhas Mentos 37,5g</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>R$ 2,99</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/009c4e19-c0b8-11e7-a6aa-063e6e4e9f3a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>Tubes Gigante Fini 27g Twister</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>R$ 2,99</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/799df586-f928-4e29-819e-8527436161e0.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>Bala Dogigoma Mini Abobora 180g Vass Bru</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>R$ 10,99</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b32a5e49-bd53-4a3e-a542-fb51903719f0.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>Pe De Moça Dacolonia 120g Choc Branco</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>R$ 12,99</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5def68e5-2f82-4a68-a92c-3041c8a91bca.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>Chiclete Trident 14s 25,2g Tutti Frutti</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>R$ 7,99</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a0c8c4b8-ee7e-4d39-b01d-a608ead36bf0.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>Pao De Mel Wickbold 175g</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>R$ 15,99</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1a1ac50c-8046-4d63-96ce-965278341794.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>Chiclete Trident Garrafa 48,3g Blueberry</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>R$ 14,99</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8c4cd924-4eb6-4963-9e79-a6cb6c0fd961.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>Bala Goma Sour Patch Kids 80g</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>R$ 15,99</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/50b31b86-eef4-43af-bc76-9f04177e6f61.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>Bala Fini 80g Sorvetinho</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>R$ 7,99</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3a0bb586-4d78-4ca3-8178-4e8a716f8aec.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>Bala Fini 80 Oceanitos</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>R$ 7,99</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9a39613b-5b7c-4c67-bc14-cbbed280ff2f.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>Bala Tribala 500g Morango</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>R$ 12,99</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/879d4163-cf6f-410f-8c54-3bf37fbe0749.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>Chiclete Trident Garrafa 48,3g Citrus</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>R$ 14,99</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d19467f7-f0a4-482e-85fa-8b76e5e668d6.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>Chiclete Trident X 8g Fresh Intense</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>R$ 2,99</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/33274f82-9c9e-4a84-aa11-be43f3607d70.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>Bala Goma Sour Patch Kids 80g Watermelon</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>R$ 15,99</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e55187a6-89bd-4e77-a975-9e23e6a9b1b0.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>Bala Fini 80g Ovos Fritos</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>R$ 7,99</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d110ca00-44f0-4d49-8100-38796ade4d65.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>Bala Tribala 500g 2 Frutas Sortida</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>R$ 12,99</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4f091052-ac49-4168-95c4-ec949ebdb27b.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>Bala Acida Ursinho Jouy 80g</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>R$ 10,99</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>Bala De Ursinho Jouy 80g</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>R$ 10,99</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>Bala Trolli Hot Dog 270g</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>R$ 34,99</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>Bala Trolli Mini Burguer 90g</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>R$ 34,99</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/df4995c2-df63-4e1f-999c-fca265320788.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>Bala Sour Candy Jouy 16g Limão</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>R$ 3,99</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/572e7d80-da88-4eec-924a-f8464f507355.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>Bala Sour Candy Jouy 16g Morango</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>R$ 3,99</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/49b1bc70-30f2-4603-a8d4-5c413a9fd2f5.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>Bala Fini 80g Rato</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>R$ 7,99</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2d5e487c-860e-4a93-a00e-d8911711047e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>Palito Frapella Avel</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>R$ 15,99</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>Creme De Pistache Com Palitos Frapella 55g</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>R$ 15,99</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>Mercearia Doce</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>Balas e doces</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>Marshmallow Fini Pipoca Doce 80g</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>R$ 7,99</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/eaa31fe3-a24d-4149-9e0f-dc0e99414676.jpg</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>7898279791162</t>
         </is>
       </c>
     </row>
